--- a/experiment_results/DataV2_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1207,10 +1207,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -1824,10 +1824,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -2896,19 +2896,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -2934,19 +2934,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1.619433198380567</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -3358,19 +3358,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -4354,19 +4354,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>3.643724696356275</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>5.668016194331984</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -4816,19 +4816,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -5031,19 +5031,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>14.5748987854251</v>
+        <v>60.32388663967612</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="G2">
-        <v>14.5748987854251</v>
+        <v>60.32388663967612</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -5072,19 +5072,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>10.12145748987854</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G3">
-        <v>10.12145748987854</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -5113,19 +5113,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -5590,10 +5590,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -5660,19 +5660,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>33.60323886639677</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -5698,19 +5698,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>4.048582995951417</v>
+        <v>18.62348178137652</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -5812,19 +5812,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>4.8582995951417</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>7.692307692307693</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -5850,19 +5850,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -6207,10 +6207,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -6274,19 +6274,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>4.453441295546559</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G34">
-        <v>6.882591093117409</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -6489,19 +6489,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>14.5748987854251</v>
+        <v>60.32388663967612</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="G2">
-        <v>14.5748987854251</v>
+        <v>60.32388663967612</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -6530,19 +6530,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>10.12145748987854</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G3">
-        <v>10.12145748987854</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -6571,19 +6571,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -7048,10 +7048,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -7118,19 +7118,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>33.60323886639677</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -7156,19 +7156,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G19">
-        <v>4.048582995951417</v>
+        <v>18.62348178137652</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -7270,19 +7270,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>4.8582995951417</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>7.692307692307693</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -7308,19 +7308,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -7665,10 +7665,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32">
-        <v>10.12145748987854</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -7732,19 +7732,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>4.453441295546559</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G34">
-        <v>6.882591093117409</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -9955,10 +9955,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -10572,10 +10572,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -12321,19 +12321,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>7.692307692307693</v>
+        <v>45.74898785425101</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>7.692307692307693</v>
+        <v>45.74898785425101</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -12362,19 +12362,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>44.12955465587044</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>44.12955465587044</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -12403,19 +12403,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -12520,19 +12520,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -12833,19 +12833,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>19.83805668016194</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -12880,10 +12880,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -12950,19 +12950,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>27.93522267206478</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -12988,19 +12988,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>2.024291497975709</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="G19">
-        <v>2.834008097165992</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -13102,19 +13102,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -13140,19 +13140,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>2.834008097165992</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>4.453441295546559</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -13447,19 +13447,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -13497,10 +13497,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -13564,19 +13564,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -13602,19 +13602,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>2.024291497975709</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>2.024291497975709</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -14560,19 +14560,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -15022,19 +15022,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -16018,19 +16018,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -16056,19 +16056,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1.619433198380567</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>2.42914979757085</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -16480,19 +16480,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -17245,10 +17245,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -17862,10 +17862,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -18153,19 +18153,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -18194,19 +18194,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -18235,19 +18235,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -18352,19 +18352,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -18665,19 +18665,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -18712,10 +18712,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -18782,19 +18782,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>27.93522267206478</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -18820,19 +18820,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G19">
-        <v>5.668016194331984</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -18934,19 +18934,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>2.834008097165992</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>4.048582995951417</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -18972,19 +18972,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -19279,19 +19279,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -19329,10 +19329,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -19396,19 +19396,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -19434,19 +19434,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -19611,19 +19611,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -19652,19 +19652,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -19693,19 +19693,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -19810,19 +19810,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -20123,19 +20123,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -20170,10 +20170,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -20240,19 +20240,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>27.93522267206478</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -20278,19 +20278,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G19">
-        <v>5.668016194331984</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -20392,19 +20392,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>2.834008097165992</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>4.048582995951417</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -20430,19 +20430,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -20737,19 +20737,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -20787,10 +20787,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -20854,19 +20854,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -20892,19 +20892,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -21069,19 +21069,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>8.502024291497975</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="G2">
-        <v>8.502024291497975</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -21110,19 +21110,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>6.072874493927126</v>
+        <v>57.48987854251012</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="G3">
-        <v>6.072874493927126</v>
+        <v>57.48987854251012</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -21151,19 +21151,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -21268,19 +21268,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -21581,19 +21581,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.64777327935223</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -21628,10 +21628,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -21698,19 +21698,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>24.2914979757085</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G18">
-        <v>10.52631578947368</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -21736,19 +21736,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>2.024291497975709</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G19">
-        <v>2.834008097165992</v>
+        <v>47.77327935222672</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -21850,19 +21850,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -21888,19 +21888,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G23">
-        <v>1.214574898785425</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -22195,19 +22195,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -22236,19 +22236,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -22312,19 +22312,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -22350,19 +22350,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -24535,10 +24535,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -25152,10 +25152,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>6.882591093117409</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -25443,19 +25443,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -25484,19 +25484,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -25525,19 +25525,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -25642,19 +25642,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -25955,19 +25955,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -26002,10 +26002,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -26072,19 +26072,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>27.93522267206478</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -26110,19 +26110,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G19">
-        <v>5.668016194331984</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -26224,19 +26224,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>2.834008097165992</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>4.048582995951417</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -26262,19 +26262,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -26569,19 +26569,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -26619,10 +26619,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -26686,19 +26686,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -26724,19 +26724,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -26901,19 +26901,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D2">
-        <v>11.33603238866397</v>
+        <v>55.06072874493927</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>11.33603238866397</v>
+        <v>55.06072874493927</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -26942,19 +26942,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>8.906882591093117</v>
+        <v>54.65587044534414</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="G3">
-        <v>8.906882591093117</v>
+        <v>54.65587044534414</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -26983,19 +26983,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H4">
         <v>134</v>
@@ -27460,10 +27460,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H16">
         <v>81</v>
@@ -27530,19 +27530,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>38.8663967611336</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>25.91093117408907</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -27568,19 +27568,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>2.024291497975709</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="G19">
-        <v>2.834008097165992</v>
+        <v>34.81781376518219</v>
       </c>
       <c r="H19">
         <v>216</v>
@@ -27682,19 +27682,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>2.834008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>4.048582995951417</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H22">
         <v>206</v>
@@ -27720,19 +27720,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H23">
         <v>211</v>
@@ -28077,10 +28077,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H32">
         <v>135</v>
@@ -28144,19 +28144,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H34">
         <v>202</v>
@@ -28182,19 +28182,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -29140,19 +29140,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -29178,19 +29178,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>3.238866396761134</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -29526,10 +29526,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>4.048582995951417</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -29602,19 +29602,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -30598,19 +30598,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -31060,19 +31060,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -31825,10 +31825,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -32442,10 +32442,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -33283,10 +33283,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -34741,10 +34741,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -35358,10 +35358,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -36316,19 +36316,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1.619433198380567</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.024291497975709</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -36430,19 +36430,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>4.048582995951417</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>6.072874493927126</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -36468,19 +36468,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>6.072874493927126</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H23">
         <v>26</v>
@@ -36892,19 +36892,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <v>5.263157894736842</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -37935,10 +37935,10 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>1.214574898785425</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -38274,10 +38274,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>3.238866396761134</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -40023,19 +40023,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>3.643724696356275</v>
+        <v>32.38866396761134</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -40064,19 +40064,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>28.34008097165992</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -40105,19 +40105,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>22.67206477732794</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -40222,19 +40222,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -40535,19 +40535,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -40582,10 +40582,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.40890688259109</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -40652,19 +40652,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>40.89068825910931</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>27.93522267206478</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -40690,19 +40690,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>2.834008097165992</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G19">
-        <v>5.668016194331984</v>
+        <v>55.46558704453442</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -40804,19 +40804,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>2.834008097165992</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>4.048582995951417</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -40842,19 +40842,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>8.097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -41149,19 +41149,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>3.643724696356275</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -41199,10 +41199,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>9.7165991902834</v>
+        <v>37.24696356275304</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -41266,19 +41266,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>2.42914979757085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>3.238866396761134</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -41304,19 +41304,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -41481,19 +41481,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>21.45748987854251</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>3.643724696356275</v>
+        <v>21.45748987854251</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -41522,19 +41522,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>3.643724696356275</v>
+        <v>16.19433198380567</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -41563,19 +41563,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>3.643724696356275</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -41680,19 +41680,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -41993,19 +41993,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>1.214574898785425</v>
+        <v>20.24291497975709</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -42040,10 +42040,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>3.643724696356275</v>
+        <v>17.81376518218623</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -42110,19 +42110,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>25.10121457489878</v>
+        <v>44.53441295546558</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G18">
-        <v>12.14574898785425</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -42148,19 +42148,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>4.453441295546559</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="G19">
-        <v>9.311740890688259</v>
+        <v>70.8502024291498</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -42262,19 +42262,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>3.643724696356275</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G22">
-        <v>5.668016194331984</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -42300,19 +42300,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>3.643724696356275</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G23">
-        <v>5.668016194331984</v>
+        <v>25.50607287449393</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -42648,19 +42648,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G32">
-        <v>7.692307692307693</v>
+        <v>36.43724696356275</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -42724,19 +42724,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>3.238866396761134</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>4.8582995951417</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -42762,19 +42762,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3.643724696356275</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -43489,10 +43489,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>2.834008097165992</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E16">
         <v>54</v>

--- a/experiment_results/DataV2_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -1207,10 +1207,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -1824,10 +1824,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -2896,19 +2896,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -2934,19 +2934,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>2.024291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -3358,19 +3358,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -4354,19 +4354,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>2.42914979757085</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>3.238866396761134</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -4816,19 +4816,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>2.024291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>2.42914979757085</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -5031,19 +5031,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>60.32388663967612</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>60.32388663967612</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -5072,19 +5072,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>57.89473684210527</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>57.89473684210527</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -5113,19 +5113,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -5590,10 +5590,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -5660,19 +5660,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>33.60323886639677</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>20.64777327935223</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -5698,19 +5698,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>18.62348178137652</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -5812,19 +5812,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>6.072874493927126</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22">
-        <v>9.311740890688259</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -5850,19 +5850,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>6.072874493927126</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>8.906882591093117</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -6207,10 +6207,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>10.52631578947368</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -6274,19 +6274,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>5.668016194331984</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>8.502024291497975</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -6489,19 +6489,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>60.32388663967612</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>60.32388663967612</v>
+        <v>14.5748987854251</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -6530,19 +6530,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>57.89473684210527</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>57.89473684210527</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -6571,19 +6571,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>106</v>
@@ -7048,10 +7048,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>63</v>
@@ -7118,19 +7118,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>33.60323886639677</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>20.64777327935223</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -7156,19 +7156,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>18.62348178137652</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H19">
         <v>212</v>
@@ -7270,19 +7270,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>6.072874493927126</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G22">
-        <v>9.311740890688259</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H22">
         <v>189</v>
@@ -7308,19 +7308,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>6.072874493927126</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>8.906882591093117</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>207</v>
@@ -7665,10 +7665,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>10.52631578947368</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="H32">
         <v>118</v>
@@ -7732,19 +7732,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>5.668016194331984</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>8.502024291497975</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="H34">
         <v>185</v>
@@ -9955,10 +9955,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -10572,10 +10572,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -12321,19 +12321,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>45.74898785425101</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>45.74898785425101</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -12362,19 +12362,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>44.12955465587044</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>44.12955465587044</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -12403,19 +12403,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -12520,19 +12520,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -12833,19 +12833,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>19.83805668016194</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -12880,10 +12880,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -12950,19 +12950,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>40.89068825910931</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>27.93522267206478</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -12988,19 +12988,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>46.15384615384615</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -13102,19 +13102,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3.238866396761134</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4.8582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -13140,19 +13140,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>4.048582995951417</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>6.882591093117409</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -13447,19 +13447,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>7.28744939271255</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>7.28744939271255</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -13497,10 +13497,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>37.24696356275304</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -13564,19 +13564,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>2.834008097165992</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>4.048582995951417</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -13602,19 +13602,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>4.453441295546559</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>4.453441295546559</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -14560,19 +14560,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -15022,19 +15022,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -16018,19 +16018,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -16056,19 +16056,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0.8097165991902834</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>2.024291497975709</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -16480,19 +16480,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -17245,10 +17245,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -17862,10 +17862,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -18153,19 +18153,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -18194,19 +18194,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -18235,19 +18235,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -18352,19 +18352,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -18665,19 +18665,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.24291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -18712,10 +18712,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -18782,19 +18782,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>40.89068825910931</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>27.93522267206478</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -18820,19 +18820,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>55.46558704453442</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -18934,19 +18934,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>8.906882591093117</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -18972,19 +18972,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8.097165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>20.24291497975709</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -19279,19 +19279,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -19329,10 +19329,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>37.24696356275304</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -19396,19 +19396,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>7.692307692307693</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -19434,19 +19434,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -19611,19 +19611,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -19652,19 +19652,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -19693,19 +19693,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -19810,19 +19810,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -20123,19 +20123,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.24291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -20170,10 +20170,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -20240,19 +20240,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>40.89068825910931</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>27.93522267206478</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -20278,19 +20278,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>55.46558704453442</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -20392,19 +20392,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>8.906882591093117</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -20430,19 +20430,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8.097165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>20.24291497975709</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -20737,19 +20737,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -20787,10 +20787,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>37.24696356275304</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -20854,19 +20854,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>7.692307692307693</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -20892,19 +20892,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -21069,19 +21069,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>57.89473684210527</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>57.89473684210527</v>
+        <v>8.502024291497975</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -21110,19 +21110,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>57.48987854251012</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>57.48987854251012</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -21151,19 +21151,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>23.48178137651822</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>23.48178137651822</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -21268,19 +21268,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -21581,19 +21581,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.64777327935223</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -21628,10 +21628,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -21698,19 +21698,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>38.46153846153847</v>
+        <v>24.2914979757085</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>25.10121457489878</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -21736,19 +21736,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>47.77327935222672</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -21850,19 +21850,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3.643724696356275</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4.453441295546559</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -21888,19 +21888,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>6.477732793522267</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>9.311740890688259</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -22195,19 +22195,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>7.28744939271255</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>7.28744939271255</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -22236,19 +22236,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>39.27125506072874</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -22312,19 +22312,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>3.238866396761134</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>3.643724696356275</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -22350,19 +22350,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -24535,10 +24535,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -25152,10 +25152,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>6.882591093117409</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -25443,19 +25443,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -25484,19 +25484,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -25525,19 +25525,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -25642,19 +25642,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -25955,19 +25955,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.24291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -26002,10 +26002,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -26072,19 +26072,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>40.89068825910931</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>27.93522267206478</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -26110,19 +26110,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>55.46558704453442</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -26224,19 +26224,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>8.906882591093117</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -26262,19 +26262,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8.097165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>20.24291497975709</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -26569,19 +26569,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -26619,10 +26619,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>37.24696356275304</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -26686,19 +26686,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>7.692307692307693</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -26724,19 +26724,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -26901,19 +26901,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>55.06072874493927</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>55.06072874493927</v>
+        <v>11.33603238866397</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -26942,19 +26942,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>54.65587044534414</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>54.65587044534414</v>
+        <v>8.906882591093117</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -26983,19 +26983,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>134</v>
@@ -27460,10 +27460,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>81</v>
@@ -27530,19 +27530,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>38.8663967611336</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>25.91093117408907</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -27568,19 +27568,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>6.882591093117409</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>34.81781376518219</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="H19">
         <v>216</v>
@@ -27682,19 +27682,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>3.643724696356275</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>5.263157894736842</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>206</v>
@@ -27720,19 +27720,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>6.072874493927126</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>211</v>
@@ -28077,10 +28077,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>11.33603238866397</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>135</v>
@@ -28144,19 +28144,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>3.238866396761134</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>4.453441295546559</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>202</v>
@@ -28182,19 +28182,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -29140,19 +29140,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -29178,19 +29178,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>1.214574898785425</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>2.42914979757085</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -29526,10 +29526,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>5.668016194331984</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -29602,19 +29602,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -30598,19 +30598,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -31060,19 +31060,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8097165991902834</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H34">
         <v>18</v>
@@ -31825,10 +31825,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -32442,10 +32442,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>8.097165991902834</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -33283,10 +33283,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -34741,10 +34741,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>6.477732793522267</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E16">
         <v>54</v>
@@ -35358,10 +35358,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>9.311740890688259</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -36316,19 +36316,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0.4048582995951417</v>
+        <v>1.619433198380567</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>0.4048582995951417</v>
+        <v>2.024291497975709</v>
       </c>
       <c r="H19">
         <v>36</v>
@@ -36430,19 +36430,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>5.263157894736842</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>8.097165991902834</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H22">
         <v>22</v>
@@ -36468,19 +36468,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>4.453441295546559</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>6.882591093117409</v>
+        <v>6.072874493927126</v>
       </c>
       <c r="H23">
         <v>26</v>
@@ -36892,19 +36892,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>4.048582995951417</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G34">
-        <v>7.28744939271255</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -37935,10 +37935,10 @@
         <v>64</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>1.619433198380567</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -38274,10 +38274,10 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>4.048582995951417</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E32">
         <v>43</v>
@@ -40023,19 +40023,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>32.38866396761134</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -40064,19 +40064,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>28.34008097165992</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -40105,19 +40105,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>22.67206477732794</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -40222,19 +40222,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.214574898785425</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -40535,19 +40535,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.24291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -40582,10 +40582,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.40890688259109</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -40652,19 +40652,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>40.89068825910931</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>27.93522267206478</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -40690,19 +40690,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>55.46558704453442</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -40804,19 +40804,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>5.668016194331984</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>8.906882591093117</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -40842,19 +40842,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8.097165991902834</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>20.24291497975709</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -41149,19 +41149,19 @@
         <v>68</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E31">
         <v>247</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>5.263157894736842</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H31">
         <v>227</v>
@@ -41199,10 +41199,10 @@
         <v>43</v>
       </c>
       <c r="F32">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G32">
-        <v>37.24696356275304</v>
+        <v>9.7165991902834</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -41266,19 +41266,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>5.263157894736842</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>7.692307692307693</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -41304,19 +41304,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -41481,19 +41481,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>21.45748987854251</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E2">
         <v>247</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>21.45748987854251</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H2">
         <v>245</v>
@@ -41522,19 +41522,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>16.19433198380567</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E3">
         <v>247</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>16.19433198380567</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H3">
         <v>245</v>
@@ -41563,19 +41563,19 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>23.07692307692308</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>23.07692307692308</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H4">
         <v>162</v>
@@ -41680,19 +41680,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2.024291497975709</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.024291497975709</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -41993,19 +41993,19 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E15">
         <v>43</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>20.24291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H15">
         <v>158</v>
@@ -42040,10 +42040,10 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>17.81376518218623</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H16">
         <v>97</v>
@@ -42110,19 +42110,19 @@
         <v>44</v>
       </c>
       <c r="C18">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>44.53441295546558</v>
+        <v>25.10121457489878</v>
       </c>
       <c r="E18">
         <v>48</v>
       </c>
       <c r="F18">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>31.57894736842105</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="H18">
         <v>109</v>
@@ -42148,19 +42148,19 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>8.502024291497975</v>
+        <v>4.453441295546559</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>70.8502024291498</v>
+        <v>9.311740890688259</v>
       </c>
       <c r="H19">
         <v>218</v>
@@ -42262,19 +42262,19 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>8.502024291497975</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E22">
         <v>88</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>16.59919028340081</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H22">
         <v>214</v>
@@ -42300,19 +42300,19 @@
         <v>51</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8.906882591093117</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>25.50607287449393</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="H23">
         <v>214</v>
@@ -42648,19 +42648,19 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>7.28744939271255</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E32">
         <v>43</v>
       </c>
       <c r="F32">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>36.43724696356275</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -42724,19 +42724,19 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7.692307692307693</v>
+        <v>3.238866396761134</v>
       </c>
       <c r="E34">
         <v>88</v>
       </c>
       <c r="F34">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>14.5748987854251</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="H34">
         <v>212</v>
@@ -42762,19 +42762,19 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="E35">
         <v>247</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>6.882591093117409</v>
+        <v>3.643724696356275</v>
       </c>
       <c r="H35">
         <v>97</v>
@@ -43489,10 +43489,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>3.238866396761134</v>
+        <v>2.834008097165992</v>
       </c>
       <c r="E16">
         <v>54</v>
